--- a/Team-Data/2013-14/3-6-2013-14.xlsx
+++ b/Team-Data/2013-14/3-6-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -756,13 +823,13 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>9</v>
@@ -816,7 +883,7 @@
         <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-3.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
         <v>27</v>
@@ -974,13 +1041,13 @@
         <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1132,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM4" t="n">
         <v>12</v>
@@ -1165,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX4" t="n">
         <v>26</v>
@@ -1174,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1359,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
         <v>26</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1520,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>20</v>
@@ -1693,7 +1760,7 @@
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>3</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1857,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1902,13 +1969,13 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>25</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2048,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2212,7 +2279,7 @@
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>6</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
@@ -2254,7 +2321,7 @@
         <v>20</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>4</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2397,7 +2464,7 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>5</v>
@@ -2436,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2597,7 +2664,7 @@
         <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -2850,67 +2917,67 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="J14" t="n">
-        <v>82.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P14" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="Q14" t="n">
         <v>0.729</v>
       </c>
       <c r="R14" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>43.2</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="V14" t="n">
         <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y14" t="n">
         <v>3.4</v>
@@ -2919,19 +2986,19 @@
         <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>107.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2943,13 +3010,13 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2961,7 +3028,7 @@
         <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -2973,19 +3040,19 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX14" t="n">
         <v>18</v>
@@ -3000,10 +3067,10 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -3032,37 +3099,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" t="n">
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J15" t="n">
         <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L15" t="n">
         <v>9.4</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.381</v>
+        <v>0.384</v>
       </c>
       <c r="O15" t="n">
         <v>16.6</v>
@@ -3071,7 +3138,7 @@
         <v>22.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
         <v>9.199999999999999</v>
@@ -3080,19 +3147,19 @@
         <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U15" t="n">
         <v>23.6</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
         <v>6.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y15" t="n">
         <v>4.5</v>
@@ -3104,25 +3171,25 @@
         <v>19.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.4</v>
+        <v>101.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
         <v>16</v>
@@ -3131,16 +3198,16 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO15" t="n">
         <v>21</v>
@@ -3149,7 +3216,7 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3164,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>26</v>
@@ -3176,13 +3243,13 @@
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
         <v>28</v>
       </c>
       <c r="BB15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3310,10 +3377,10 @@
         <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -3396,46 +3463,46 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="n">
         <v>43</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.729</v>
+        <v>0.741</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J17" t="n">
         <v>77</v>
       </c>
       <c r="K17" t="n">
-        <v>0.509</v>
+        <v>0.511</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O17" t="n">
         <v>17.9</v>
       </c>
       <c r="P17" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R17" t="n">
         <v>7.5</v>
@@ -3450,7 +3517,7 @@
         <v>23.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W17" t="n">
         <v>9.199999999999999</v>
@@ -3465,25 +3532,25 @@
         <v>20.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.4</v>
+        <v>104.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="n">
         <v>9</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -3510,7 +3577,7 @@
         <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>16</v>
@@ -3540,16 +3607,16 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4074,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4244,7 +4311,7 @@
         <v>19</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -4306,103 +4373,103 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="n">
         <v>46</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.742</v>
+        <v>0.754</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.476</v>
       </c>
       <c r="L22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O22" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P22" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.805</v>
+        <v>0.803</v>
       </c>
       <c r="R22" t="n">
         <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T22" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U22" t="n">
         <v>21.7</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W22" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y22" t="n">
         <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA22" t="n">
         <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.7</v>
+        <v>105.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
         <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4414,13 +4481,13 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4429,10 +4496,10 @@
         <v>17</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>14</v>
@@ -4441,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4450,16 +4517,16 @@
         <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
       </c>
       <c r="BC22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4678,7 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4784,7 +4851,7 @@
         <v>18</v>
       </c>
       <c r="AP24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4814,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
         <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.59</v>
+        <v>0.583</v>
       </c>
       <c r="H25" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I25" t="n">
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L25" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="O25" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P25" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
@@ -4906,34 +4973,34 @@
         <v>19.3</v>
       </c>
       <c r="V25" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W25" t="n">
         <v>8.4</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
         <v>22</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.5</v>
+        <v>105.2</v>
       </c>
       <c r="AC25" t="n">
         <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>9</v>
@@ -4945,16 +5012,16 @@
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
         <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM25" t="n">
         <v>3</v>
@@ -4966,7 +5033,7 @@
         <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
@@ -4987,7 +5054,7 @@
         <v>21</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX25" t="n">
         <v>14</v>
@@ -4999,7 +5066,7 @@
         <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>5.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5184,7 +5251,7 @@
         <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5315,7 +5382,7 @@
         <v>16</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -5398,22 +5465,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.738</v>
+        <v>0.733</v>
       </c>
       <c r="H28" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="J28" t="n">
         <v>82.3</v>
@@ -5431,28 +5498,28 @@
         <v>0.391</v>
       </c>
       <c r="O28" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P28" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="R28" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
         <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U28" t="n">
         <v>24.9</v>
       </c>
       <c r="V28" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
         <v>7.4</v>
@@ -5470,22 +5537,22 @@
         <v>19.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
       </c>
       <c r="AF28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH28" t="n">
         <v>19</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5524,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5548,10 +5615,10 @@
         <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5773,7 @@
         <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
@@ -5915,7 +5982,7 @@
         <v>28</v>
       </c>
       <c r="BC30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6052,7 +6119,7 @@
         <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO31" t="n">
         <v>28</v>
@@ -6070,7 +6137,7 @@
         <v>18</v>
       </c>
       <c r="AT31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-6-2013-14</t>
+          <t>2014-03-06</t>
         </is>
       </c>
     </row>
